--- a/Resultados Experimentales/Headspace/Resumen Headspace.xlsx
+++ b/Resultados Experimentales/Headspace/Resumen Headspace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_rozo11_uniandes_edu_co/Documents/Duodecimo semestre/Repositorio_Maestria/Resultados Experimentales/Headspace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="8_{22F2181A-421C-449B-9B87-A1B05CE41FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{552781A9-AC02-4236-99DB-C75D523E6359}"/>
+  <xr:revisionPtr revIDLastSave="390" documentId="8_{22F2181A-421C-449B-9B87-A1B05CE41FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1B4EA768-F535-4252-9398-E3EE17023088}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba 1 - Con Succión" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Miscelaneo " sheetId="5" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
     <sheet name="Hoja2" sheetId="7" r:id="rId7"/>
+    <sheet name="Headspace Bolsa" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
   <si>
     <t>Destructivas</t>
   </si>
@@ -382,6 +383,33 @@
   </si>
   <si>
     <t>Sellado Maquina</t>
+  </si>
+  <si>
+    <t>Aceite Sin Luz- Frio</t>
+  </si>
+  <si>
+    <t>Aceite Sin Luz-Horno</t>
+  </si>
+  <si>
+    <t>Aceite Con Luz- Frio</t>
+  </si>
+  <si>
+    <t>Aceite Con Luz-Horno</t>
+  </si>
+  <si>
+    <t>Capsulas Sin Luz- Frio</t>
+  </si>
+  <si>
+    <t>Capsulas Con Luz- Frio</t>
+  </si>
+  <si>
+    <t>Capsulas Con Luz-Horno</t>
+  </si>
+  <si>
+    <t>Capsulas Sin Luz-Horno</t>
+  </si>
+  <si>
+    <t>Fecha - Hora</t>
   </si>
 </sst>
 </file>
@@ -830,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1064,6 +1092,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1123,6 +1157,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14987,20 +15024,20 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
@@ -15423,20 +15460,20 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
@@ -15848,10 +15885,10 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="83"/>
+      <c r="C24" s="85"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B25" s="3" t="s">
@@ -15925,79 +15962,79 @@
   <sheetData>
     <row r="1" spans="1:33" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="1:33" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="91"/>
     </row>
     <row r="3" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="93" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94" t="s">
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95" t="s">
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95" t="s">
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="94" t="s">
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="94"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="90" t="s">
+      <c r="T3" s="96"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="90" t="s">
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="92"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="94"/>
     </row>
     <row r="4" spans="1:33" s="20" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23" t="s">
@@ -17171,24 +17208,24 @@
   <sheetData>
     <row r="2" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98" t="s">
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="97" t="s">
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="99"/>
-      <c r="N3" s="97" t="s">
+      <c r="M3" s="101"/>
+      <c r="N3" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="99"/>
+      <c r="O3" s="101"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="42"/>
@@ -17640,7 +17677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C40DBE8-B731-453D-9237-4B31BC596AD3}">
   <dimension ref="B3:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="C4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -17667,24 +17704,24 @@
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="97" t="s">
+      <c r="G4" s="100"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="97" t="s">
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="99"/>
-      <c r="N4" s="97" t="s">
+      <c r="M4" s="101"/>
+      <c r="N4" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="99"/>
+      <c r="O4" s="101"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="60"/>
@@ -18062,14 +18099,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B3" s="51"/>
@@ -18889,91 +18926,442 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Is_Collaboration_Space_Locked xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Invited_Teachers xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Teachers xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Distribution_Groups xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <LMS_Mappings xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <FolderType xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <CultureName xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Templates xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Members xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <Member_Groups xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <NotebookType xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Leaders xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <Has_Leaders_Only_SectionGroup xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Owner xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Math_Settings xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Invited_Members xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <AppVersion xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <TeamsChannelId xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Invited_Students xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Invited_Leaders xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Students xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FCB3BF-D5D7-4386-9A75-AB641F79C58D}">
+  <dimension ref="A2:AC6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="C2" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A3" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A4" s="84">
+        <v>44134.71875</v>
+      </c>
+      <c r="B4" s="83">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>20.5</v>
+      </c>
+      <c r="D4">
+        <v>20.5</v>
+      </c>
+      <c r="E4">
+        <v>20.5</v>
+      </c>
+      <c r="F4">
+        <v>20.5</v>
+      </c>
+      <c r="G4">
+        <v>20.5</v>
+      </c>
+      <c r="H4">
+        <v>20.5</v>
+      </c>
+      <c r="I4">
+        <v>20.5</v>
+      </c>
+      <c r="J4">
+        <v>20.5</v>
+      </c>
+      <c r="K4">
+        <v>20.5</v>
+      </c>
+      <c r="L4">
+        <v>20.5</v>
+      </c>
+      <c r="M4">
+        <v>20.5</v>
+      </c>
+      <c r="N4">
+        <v>20.5</v>
+      </c>
+      <c r="O4">
+        <v>20.5</v>
+      </c>
+      <c r="P4">
+        <v>20.5</v>
+      </c>
+      <c r="Q4">
+        <v>20.5</v>
+      </c>
+      <c r="R4">
+        <v>20.5</v>
+      </c>
+      <c r="S4">
+        <v>20.5</v>
+      </c>
+      <c r="T4">
+        <v>20.5</v>
+      </c>
+      <c r="U4">
+        <v>20.5</v>
+      </c>
+      <c r="V4">
+        <v>20.5</v>
+      </c>
+      <c r="W4">
+        <v>20.5</v>
+      </c>
+      <c r="X4">
+        <v>20.5</v>
+      </c>
+      <c r="Y4">
+        <v>20.5</v>
+      </c>
+      <c r="Z4">
+        <v>20.5</v>
+      </c>
+      <c r="AA4">
+        <v>20.5</v>
+      </c>
+      <c r="AB4">
+        <v>20.5</v>
+      </c>
+      <c r="AC4">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A5" s="84">
+        <v>44138.375</v>
+      </c>
+      <c r="B5" s="83">
+        <f>(A5-$A$4)*24</f>
+        <v>87.75</v>
+      </c>
+      <c r="C5">
+        <v>20.6</v>
+      </c>
+      <c r="D5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F5">
+        <v>20.5</v>
+      </c>
+      <c r="G5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H5">
+        <v>20.6</v>
+      </c>
+      <c r="I5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J5">
+        <v>20.6</v>
+      </c>
+      <c r="K5">
+        <v>20.6</v>
+      </c>
+      <c r="L5">
+        <v>20.6</v>
+      </c>
+      <c r="M5">
+        <v>20.5</v>
+      </c>
+      <c r="N5">
+        <v>20.6</v>
+      </c>
+      <c r="O5">
+        <v>20.6</v>
+      </c>
+      <c r="P5">
+        <v>20.6</v>
+      </c>
+      <c r="Q5">
+        <v>20.6</v>
+      </c>
+      <c r="R5">
+        <v>20.6</v>
+      </c>
+      <c r="S5">
+        <v>20.6</v>
+      </c>
+      <c r="T5">
+        <v>20.6</v>
+      </c>
+      <c r="U5">
+        <v>20.6</v>
+      </c>
+      <c r="V5">
+        <v>20.6</v>
+      </c>
+      <c r="W5">
+        <v>20.6</v>
+      </c>
+      <c r="X5">
+        <v>20.6</v>
+      </c>
+      <c r="Y5">
+        <v>20.6</v>
+      </c>
+      <c r="Z5">
+        <v>20.6</v>
+      </c>
+      <c r="AA5">
+        <v>20.6</v>
+      </c>
+      <c r="AB5">
+        <v>20.6</v>
+      </c>
+      <c r="AC5">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A6" s="84">
+        <v>44139.354166666664</v>
+      </c>
+      <c r="B6" s="83">
+        <f>(A6-$A$4)*24</f>
+        <v>111.24999999994179</v>
+      </c>
+      <c r="C6">
+        <v>20.6</v>
+      </c>
+      <c r="D6">
+        <v>20.6</v>
+      </c>
+      <c r="E6">
+        <v>20.6</v>
+      </c>
+      <c r="F6">
+        <v>20.6</v>
+      </c>
+      <c r="G6">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H6">
+        <v>20.6</v>
+      </c>
+      <c r="I6">
+        <v>20.6</v>
+      </c>
+      <c r="J6">
+        <v>20.6</v>
+      </c>
+      <c r="K6">
+        <v>20.6</v>
+      </c>
+      <c r="L6">
+        <v>20.6</v>
+      </c>
+      <c r="M6">
+        <v>20.6</v>
+      </c>
+      <c r="N6">
+        <v>20.6</v>
+      </c>
+      <c r="O6">
+        <v>20.6</v>
+      </c>
+      <c r="P6">
+        <v>20.6</v>
+      </c>
+      <c r="Q6">
+        <v>20.6</v>
+      </c>
+      <c r="R6">
+        <v>20.6</v>
+      </c>
+      <c r="S6">
+        <v>20.6</v>
+      </c>
+      <c r="T6">
+        <v>20.6</v>
+      </c>
+      <c r="U6">
+        <v>20.6</v>
+      </c>
+      <c r="V6">
+        <v>20.6</v>
+      </c>
+      <c r="W6">
+        <v>20.6</v>
+      </c>
+      <c r="X6">
+        <v>20.6</v>
+      </c>
+      <c r="Y6">
+        <v>20.6</v>
+      </c>
+      <c r="Z6">
+        <v>20.6</v>
+      </c>
+      <c r="AA6">
+        <v>20.6</v>
+      </c>
+      <c r="AB6">
+        <v>20.6</v>
+      </c>
+      <c r="AC6">
+        <v>20.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006E073622718B7D418B69CBE92FF13C49" ma:contentTypeVersion="39" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5f1dbbd8d2bc6d63873560f8f91a64fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2d185e16-06da-45ab-8500-654d664b7dd3" xmlns:ns4="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0256b4d38701b5e0b7a2941a706499e5" ns3:_="" ns4:_="">
     <xsd:import namespace="2d185e16-06da-45ab-8500-654d664b7dd3"/>
@@ -19466,25 +19854,91 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09AB5318-E418-4B62-9E51-22DF6F108056}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A60FE89-AD0C-4ABB-8D67-D409A26F781F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Is_Collaboration_Space_Locked xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Invited_Teachers xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Teachers xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Distribution_Groups xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <LMS_Mappings xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <FolderType xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <CultureName xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Templates xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Members xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <Member_Groups xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <NotebookType xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Leaders xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <Has_Leaders_Only_SectionGroup xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Owner xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Math_Settings xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Invited_Members xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <AppVersion xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <TeamsChannelId xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Invited_Students xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Invited_Leaders xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Students xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8A38F03-A22E-4DB2-8B79-1B7E6B581CEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19501,4 +19955,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A60FE89-AD0C-4ABB-8D67-D409A26F781F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09AB5318-E418-4B62-9E51-22DF6F108056}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Resultados Experimentales/Headspace/Resumen Headspace.xlsx
+++ b/Resultados Experimentales/Headspace/Resumen Headspace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_rozo11_uniandes_edu_co/Documents/Duodecimo semestre/Repositorio_Maestria/Resultados Experimentales/Headspace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{DEA78EF1-5BD1-4573-ACEB-006882DA90C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{10FA57E2-10AF-4B06-96D5-A67C0294B491}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{DEA78EF1-5BD1-4573-ACEB-006882DA90C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0E203D5B-459F-4510-9A43-12159F036C21}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="30" yWindow="30" windowWidth="19170" windowHeight="14130" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba 1 - Con Succión" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,10 @@
     <sheet name="Tabla_datos" sheetId="14" r:id="rId13"/>
     <sheet name="Tabla_datos_capsulas" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <externalReferences>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
+  <calcPr calcId="191028" iterate="1" iterateCount="1000" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="179">
   <si>
     <t>Destructivas</t>
   </si>
@@ -1100,7 +1103,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1454,6 +1457,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -15073,6 +15079,545 @@
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12555314960629921"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.83828018372703417"/>
+          <c:h val="0.74338764946048408"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Antiguo</c:v>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Tabla_datos_capsulas!$C$11:$C$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.4280904158207682E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.1649658092772318E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.7735026918961346E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.1527525231651953</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.1247219128924649</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Tabla_datos_capsulas!$C$11:$C$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.4280904158207682E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.1649658092772318E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.7735026918961346E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.1527525231651953</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.1247219128924649</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabla_datos_capsulas!$A$11:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9791666666642413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9791666666642413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.979166666664241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabla_datos_capsulas!$B$11:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>20.533333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>20.166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>19.933333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3214-4145-BE0E-D180BEBC8A92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Nuevo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>[1]Hoja1!$L$31:$L$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.19999999999999929</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.56862407030773343</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.40414518843273833</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0392304845413269</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>[1]Hoja1!$L$31:$L$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.19999999999999929</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.56862407030773343</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.40414518843273833</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0392304845413269</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Hoja1!$B$31:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.015277777776646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1277777777722804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9249999999956344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2374999999956344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Hoja1!$K$31:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.933333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.599999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3214-4145-BE0E-D180BEBC8A92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="517936495"/>
+        <c:axId val="517968111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="517936495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Neue Haas Grotesk Text Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo [días]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517968111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="517968111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Neue Haas Grotesk Text Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>% O2 en Headspace</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517936495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13205555555555559"/>
+          <c:y val="0.6013538932633421"/>
+          <c:w val="0.18316666666666667"/>
+          <c:h val="0.16766258384368618"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Neue Haas Grotesk Text Pro" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="es-CO"/>
@@ -35036,6 +35581,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>197643</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>197643</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F305D39D-A8A7-4AE8-ADC5-169CAFF2EEAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -35474,6 +36060,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="31">
+          <cell r="B31">
+            <v>0</v>
+          </cell>
+          <cell r="K31">
+            <v>20.6</v>
+          </cell>
+          <cell r="L31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>2.015277777776646</v>
+          </cell>
+          <cell r="K32">
+            <v>20.3</v>
+          </cell>
+          <cell r="L32">
+            <v>0.19999999999999929</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>5.1277777777722804</v>
+          </cell>
+          <cell r="K33">
+            <v>19.333333333333332</v>
+          </cell>
+          <cell r="L33">
+            <v>0.56862407030773343</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>7.9249999999956344</v>
+          </cell>
+          <cell r="K34">
+            <v>17.933333333333334</v>
+          </cell>
+          <cell r="L34">
+            <v>0.40414518843273833</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>9.2374999999956344</v>
+          </cell>
+          <cell r="K35">
+            <v>17.599999999999998</v>
+          </cell>
+          <cell r="L35">
+            <v>1.0392304845413269</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -35756,20 +36411,20 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
@@ -36192,20 +36847,20 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="130"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
@@ -36617,10 +37272,10 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="129"/>
+      <c r="C24" s="130"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B25" s="3" t="s">
@@ -36682,12 +37337,12 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="20"/>
       <c r="B3" s="86"/>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="20"/>
@@ -37458,9 +38113,9 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B10" s="121"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
       <c r="F10" s="111"/>
       <c r="G10" s="111"/>
     </row>
@@ -39272,8 +39927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0DD3F7-83A7-4D7E-B944-C1ADCF5AE571}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39365,10 +40020,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD725E6-52C4-4E3C-B70F-679729564383}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39473,8 +40128,113 @@
         <v>0.1247219128924649</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="129" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <f>A2/24</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="129" cm="1">
+        <f t="array" ref="B11:B12">'Headspace Destructivo capsu'!$F$2:$F$3</f>
+        <v>20.6</v>
+      </c>
+      <c r="C11" cm="1">
+        <f t="array" ref="C11:C12">'Headspace Destructivo capsu'!$G$2:$G$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <f t="shared" ref="A12:A17" si="0">A3/24</f>
+        <v>2</v>
+      </c>
+      <c r="B12" s="129">
+        <v>20.6</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>4.875</v>
+      </c>
+      <c r="B13" s="62">
+        <f>'Headspace Destructivo capsu'!$N$4</f>
+        <v>20.533333333333335</v>
+      </c>
+      <c r="C13">
+        <f>'Headspace Destructivo capsu'!$O$4</f>
+        <v>9.4280904158207682E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>6.9791666666642413</v>
+      </c>
+      <c r="B14" s="124">
+        <f>'Headspace Destructivo capsu'!$W$5</f>
+        <v>20.400000000000002</v>
+      </c>
+      <c r="C14" s="123">
+        <f>'Headspace Destructivo capsu'!$X$5</f>
+        <v>8.1649658092772318E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>8.9791666666642413</v>
+      </c>
+      <c r="B15" s="115">
+        <f>'Headspace Destructivo capsu'!$AB$6</f>
+        <v>20.166666666666668</v>
+      </c>
+      <c r="C15">
+        <f>'Headspace Destructivo capsu'!$AC$6</f>
+        <v>5.7735026918961346E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>11.979166666664241</v>
+      </c>
+      <c r="B16" s="62">
+        <f>'Headspace Destructivo capsu'!$AK$7</f>
+        <v>19.933333333333334</v>
+      </c>
+      <c r="C16" s="92">
+        <f>'Headspace Destructivo capsu'!$AL$7</f>
+        <v>0.1527525231651953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14.125</v>
+      </c>
+      <c r="B17" s="124">
+        <f>'Headspace Destructivo capsu'!$AQ$8</f>
+        <v>19.8</v>
+      </c>
+      <c r="C17">
+        <f>'Headspace Destructivo capsu'!$AU$8</f>
+        <v>0.1247219128924649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -39507,79 +40267,79 @@
   <sheetData>
     <row r="1" spans="1:33" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="1:33" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="136"/>
     </row>
     <row r="3" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="139" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140" t="s">
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140" t="s">
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="141" t="s">
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141" t="s">
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="140" t="s">
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="140"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="136" t="s">
+      <c r="T3" s="141"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="137"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="137"/>
-      <c r="Z3" s="137"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="136" t="s">
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" s="137"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="137"/>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="139"/>
     </row>
     <row r="4" spans="1:33" s="20" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23" t="s">
@@ -40753,24 +41513,24 @@
   <sheetData>
     <row r="2" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144" t="s">
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="144"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="143" t="s">
+      <c r="J3" s="145"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="145"/>
-      <c r="N3" s="143" t="s">
+      <c r="M3" s="146"/>
+      <c r="N3" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="145"/>
+      <c r="O3" s="146"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="42"/>
@@ -41249,24 +42009,24 @@
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="143" t="s">
+      <c r="F4" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="143" t="s">
+      <c r="G4" s="145"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="144"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="143" t="s">
+      <c r="J4" s="145"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="145"/>
-      <c r="N4" s="143" t="s">
+      <c r="M4" s="146"/>
+      <c r="N4" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="145"/>
+      <c r="O4" s="146"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="60"/>
@@ -41644,14 +42404,14 @@
   <sheetData>
     <row r="1" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="149"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B3" s="51"/>
@@ -42498,62 +43258,62 @@
     <row r="2" spans="1:38" s="93" customFormat="1" ht="47.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149" t="s">
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149" t="s">
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149" t="s">
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149" t="s">
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150" t="s">
         <v>111</v>
       </c>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149" t="s">
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149" t="s">
+      <c r="S2" s="150"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149" t="s">
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150" t="s">
         <v>113</v>
       </c>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149" t="s">
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149" t="s">
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="149"/>
-      <c r="AG2" s="149"/>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="149"/>
-      <c r="AJ2" s="149"/>
-      <c r="AK2" s="149"/>
-      <c r="AL2" s="149"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="150"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="150"/>
+      <c r="AJ2" s="150"/>
+      <c r="AK2" s="150"/>
+      <c r="AL2" s="150"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" s="84" t="s">
@@ -43464,41 +44224,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150" t="s">
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150" t="s">
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150" t="s">
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150" t="s">
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150" t="s">
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150" t="s">
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
       <c r="Z2" t="s">
         <v>18</v>
       </c>
